--- a/quarentena.xlsx
+++ b/quarentena.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Miada\Desktop\Nova pasta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11507169-7B7D-4CF5-B555-32561B90FD9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="576">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1089,218 +1095,6 @@
     <t>@eeegmvg @bbbprior20 @cacauratimbum quarentena neh, aff, não sei como aguentam ver tanto filme, um atrás do outro 🤦🏼😂😂</t>
   </si>
   <si>
-    <t>rt @joaaaovitor_: produzi um vídeo na quarentena que acalmou o meu coração... espero que acalme o teu também...
-somos nosso próprio lar &amp;lt;3…</t>
-  </si>
-  <si>
-    <t>@madunasx @trouxavcs nem ferrando, a quarentena não deixa!!!</t>
-  </si>
-  <si>
-    <t>@pastormalafaia calaboca, burro!!!
-o trump acabou de mandar o bolsonaro aderir à quarentena, retardado!
-leva a mal não, seu malacheia, mas vou denunciar esse seu tuíte irresponsável.</t>
-  </si>
-  <si>
-    <t>ja falei pra todo mundo que o primeiro rolê dps da quarentena tem q ser em um lugar fechado pq vou dar trabalho https://t.co/voom6srjuu</t>
-  </si>
-  <si>
-    <t>rt @wagnermagrao: @boscardin que o ser humano é mal agradecido. que essa quarentena mostrou ser pior q o próprio vírus. não, não estou dize…</t>
-  </si>
-  <si>
-    <t>rt @lucaoliveirapnt: vei serio parabens pra quem ta estudando nessa quarentena pq meu nivel de desmotivação de estudar em casa sozinho é 10…</t>
-  </si>
-  <si>
-    <t>rt @ocrentesincero: mas será possível que vou ter que esperar a quarentena acabar para eu ir à sua casa com deus, para ele te contar que fo…</t>
-  </si>
-  <si>
-    <t>como eu passo meu tempo na quarentena: https://t.co/mtonhplity</t>
-  </si>
-  <si>
-    <t>eu todinha nessa quarentena vivendo de jogar uno https://t.co/d32do2gzyg</t>
-  </si>
-  <si>
-    <t>rt @theysayimlola: quarentena tá-vos a deixar mm chatos 😖</t>
-  </si>
-  <si>
-    <t>rt @canalgnt: "eu já passei por tanto sentimento até chegar na ansiedade" @pitty sobre sua quarentena #saiajustanognt https://t.co/rfabb3b5…</t>
-  </si>
-  <si>
-    <t>primeira coisa q eu vou fazer pós quarentena é beber</t>
-  </si>
-  <si>
-    <t>rt @brisaflow: levem a porra da quarentena a sério. tem gente morrendo e já já vai ser alguém perto de vc. os números só crescem e sabemos…</t>
-  </si>
-  <si>
-    <t>rt @monanalibriana: o negócio é aproveitar a quarentena pra pensar na vida e deixar de ser otária.</t>
-  </si>
-  <si>
-    <t>@ggibin1 kkkkkkk quero o rolê pós quarentena hein gibin, confio em ti</t>
-  </si>
-  <si>
-    <t>arianos na quarentena https://t.co/oq8w81hlsd</t>
-  </si>
-  <si>
-    <t>rt @tvimperial7: @wilsonwitzel tem traficantes com armas de guerra saindo pelas ruas daqui, a luz do dia e tranquilamente...
-eles serão pr…</t>
-  </si>
-  <si>
-    <t>rt @catiorro_: resumo da minha quarentena https://t.co/womr8wbnmu</t>
-  </si>
-  <si>
-    <t>@suetamr voltar da quarentena e vai ter mínimo 5 @caiuuxo na gestão</t>
-  </si>
-  <si>
-    <t>ou essa quarentena acaba ou eu furo ela kkkkkkk não aguento em todos os sentidos...</t>
-  </si>
-  <si>
-    <t>@pereiratiago última viagem antes da quarentena. sensação indescritível de conhecer esse lugar, mesmo que vazio. https://t.co/q2aannclcj</t>
-  </si>
-  <si>
-    <t>no seu governo em 2009 na pandemia você não colocou o povo em quarentena nem os governadores e prefeitos. me diga o que à de diferente para 2020? https://t.co/ioz0xhmelp</t>
-  </si>
-  <si>
-    <t>rt @interdazoeira: 15º dia de quarentena: https://t.co/rjwvaxadrt</t>
-  </si>
-  <si>
-    <t>rt @djgrillooficial: ti fude com esse bbb ti fude com essa quarentena</t>
-  </si>
-  <si>
-    <t>rt @guilhermedias_a: só tocar uma musiquinha tri e o cara já fica na tremedeira, só por acabar a quarentena e partir baile funk kkkkk</t>
-  </si>
-  <si>
-    <t>rt @damaresalves: meu recado às famílias brasileiras neste momento de quarentena.
-todo mundo tem que estar junto, mesmo longe fisicamente.…</t>
-  </si>
-  <si>
-    <t>rt @amedyr: 16o dia de quarentena https://t.co/hfga7sobgf</t>
-  </si>
-  <si>
-    <t>@isaa_viviane então eu acho q o nosso primeiro rolê pós quarentena está marcado</t>
-  </si>
-  <si>
-    <t>eu vou sair da quarentena conseguindo fazer espacate sim</t>
-  </si>
-  <si>
-    <t>essa quarentena tá um saco</t>
-  </si>
-  <si>
-    <t>rt @mcb_matheus: @mantaalves em tempos de quarentena sou a favor do prior aparecer em todas as ocasiões televisivas possíveis. pronunciamen…</t>
-  </si>
-  <si>
-    <t>@neymarjr tambem não
-ja ja o babu pedi pra sair , ou se mata duvido ele aguenta , eu mal to aguentamdo uma nessa quarentena 😑🤔 #bbbacabou</t>
-  </si>
-  <si>
-    <t>alguém me leva p rave quando passar a quarentena, nunca pedi nada sabe kkkkkk</t>
-  </si>
-  <si>
-    <t>rt @irmao_flashofc: saudades de poder falar: 
-alegrei-me quando me disseram: vamos à casa do senhor.
-salmos 122 - 1
-mas a quarentena não…</t>
-  </si>
-  <si>
-    <t>preciso d um carro econômico, pq quando acaba a quarentena eu n vo para em casa kkkkkkkk, e d v6 vo falir kkkkkkk</t>
-  </si>
-  <si>
-    <t>esse é o samy, gato do meu amigo @marcos_daud. samy é a personificação dessa quarentena 😂
-#quarentena https://t.co/2ho0tpibgh</t>
-  </si>
-  <si>
-    <t>@scriptedlouies tá de quarentena comigo 🙏 https://t.co/tjjiaytvd4</t>
-  </si>
-  <si>
-    <t>não aguento mais essa quarentena</t>
-  </si>
-  <si>
-    <t>eu juro q dps q essa quarentena passar eu vou em todas as festa que eu tiver dinheiro pra ir...</t>
-  </si>
-  <si>
-    <t>é disso que o brasil precisa pra sobreviver a quarentena https://t.co/hu5valbf4x</t>
-  </si>
-  <si>
-    <t>@_danielaccastro @exuliane essa quarentena tá fazendo a gente gostar até de jaca se duvidar.. hahaha</t>
-  </si>
-  <si>
-    <t>se não estivesse em quarentena daria lara fazer uns vídeos muito loucos</t>
-  </si>
-  <si>
-    <t>rt @arturquinho0: vamos de @40na_sessions pela primeira vez dessa quarentena então https://t.co/nfyenxawih</t>
-  </si>
-  <si>
-    <t>triste.. mais empregos sendo perdidos e nada do doria voltar a trás na quarentena.. #impeachmentdodoria https://t.co/ptfqi5ic9d</t>
-  </si>
-  <si>
-    <t>rt @ofcyagomorais: nada de ficar parado nessa quarentena, se ela dançou tenho que dançar tbm. 🕺💃 https://t.co/jrnw8x0txm</t>
-  </si>
-  <si>
-    <t>ai quarentena acaba logo pfv</t>
-  </si>
-  <si>
-    <t>olha a mulher que não fez merda no cabelo nessa quarentena não faz nunca mais kk</t>
-  </si>
-  <si>
-    <t>rt @gabrielmx35: décimo dia de quarentena: https://t.co/mtksno8hw4</t>
-  </si>
-  <si>
-    <t>uma conversa seria aqui com a @redeglobo. aproveita a quarentena e reprisa planeta xuxa p as crianças dos anos 90 aqui!</t>
-  </si>
-  <si>
-    <t>quarentena tá me fazendo mal</t>
-  </si>
-  <si>
-    <t>a louça ta sem multiplicando nessa quarentena , não é possivel</t>
-  </si>
-  <si>
-    <t>nmrl acho q vou usar a quarentena pra estudar política e economia e poder xingar ancap e liberal com muita propriedade</t>
-  </si>
-  <si>
-    <t>@leomanjamuito @anagiongoo quarentena né pai, kpop tá parado aí ele surtou kskskskksksks</t>
-  </si>
-  <si>
-    <t>não vejo a hr dessa quarentena acabar e eu colocar minhas 7292829282 ideias de foto em prática</t>
-  </si>
-  <si>
-    <t>comprei umas guludisses pra mim comer nessa quarentena</t>
-  </si>
-  <si>
-    <t>mano me ajuda, esse ano eu foquei na minha empresa e essa quarentena tá quase pra fechar meu comércio, me ajuda o que eu faço?!</t>
-  </si>
-  <si>
-    <t>@garibel_gcd @denielln10 quarentena deve tá fazendo mal pra cabeça né guerreiro</t>
-  </si>
-  <si>
-    <t>rt @briseine: quarentena seila que dia : https://t.co/5somssax78</t>
-  </si>
-  <si>
-    <t>@itsalcohol @ottorigger o que essa quarentena anda fazendo com as pessoas em  kkkkkk</t>
-  </si>
-  <si>
-    <t>@darosalele apaixonado esse menino não kakaakkakakakakakakaka, logo tu, quarentena tá triste 😂😂</t>
-  </si>
-  <si>
-    <t>rt @samuel_vieira01: a minha quarentena:</t>
-  </si>
-  <si>
-    <t>rt @luscas: hoje contei pras paredes coisas do meu coração.... poderia ser marisa monte mas sou eu simplesmente louca nessa quarentena</t>
-  </si>
-  <si>
-    <t>rt @tomas_batalha: essa quarentena batia 144266x mais com a baby🤦🏽‍♂️🤦🏽‍♂️🤦🏽‍♂️</t>
-  </si>
-  <si>
-    <t>rt @joao_volaco: rapaziada q tá querendo o toca do gatto pós quarentena , curti aki e da rt 
-se bastante gente quiser qm sabe</t>
-  </si>
-  <si>
-    <t>rt @assyarx: o que essa quarentena está fazendo comigo não é brincadeira</t>
-  </si>
-  <si>
-    <t>@lariecxx amiga quando acabar a quarentena me chama pra passar uns dias na sua casa pra gente encher a cara juntas</t>
-  </si>
-  <si>
-    <t>rt @pastormalafaia: está provado! a farsa da quarentena no brasil. bolsonaro está certo! vídeo mais tarde! https://t.co/1g7kwydukg</t>
-  </si>
-  <si>
     <t>Teste</t>
   </si>
   <si>
@@ -1314,10 +1108,6 @@
   </si>
   <si>
     <t>eu não aguento mais comer, isso mesmo a quarentena me fez cansar de comer</t>
-  </si>
-  <si>
-    <t>rt @biancaleppri: meu deus a dificuldade do reitor da unesp de aceitar a quarentena
-ead não eh opção meu anjo vamo parar de forçar</t>
   </si>
   <si>
     <t>quarentena dia 15 -
@@ -1570,16 +1360,6 @@
     <t>rt @orlandoguerreir: ódio não respeita pandemia nem quarentena. um vizinho me viu dando álcool em gel para moradores de rua e disse: eles v…</t>
   </si>
   <si>
-    <t>rt @blazyhenrique: pode postar música nova na quarentena então? 🤪
-@auravortex https://t.co/vvrlkebepx</t>
-  </si>
-  <si>
-    <t>@leticyalopesss depois dessa quarentena você vai parar com alguém? ah me poupe né meu anjo, vai parar comigo p beber, só se for</t>
-  </si>
-  <si>
-    <t>eu msm nessa quarentena kk só que no meu caso, fico feliz indo levar o lixo https://t.co/dziqlxo92o</t>
-  </si>
-  <si>
     <t>essa quarentena tá me dando vontade de fazer franjinha, deus tira essa vontade de mim pfvr</t>
   </si>
   <si>
@@ -1781,26 +1561,6 @@
   </si>
   <si>
     <t>rt @danielyvirginia: chocada que as pessoas ainda não sabiam, então aqui está um pouquinho de conhecimento pra vcs... vale a pena pesquisar…</t>
-  </si>
-  <si>
-    <t>rt @pablobranco: só de pensar nas desculpas que eu dei pra não sair de casa antes da quarentena da raiva de mim!!</t>
-  </si>
-  <si>
-    <t>rt @dyjay13: queria ta assim em quarentena com mozao... https://t.co/llccaph3fj</t>
-  </si>
-  <si>
-    <t>rt @ptnosenado: o senado acaba de ampliar o alcance do seguro quarentena de r$ 600,00 a ser pago a trabalhadores informais de baixa renda d…</t>
-  </si>
-  <si>
-    <t>eu e mainha rindo de um prefeito de uma cidade do maranhão irritadíssimo com o povo furando a quarentena. 
-- fica um bando de fi de uma égua no mei da rua 
-hahahahaha</t>
-  </si>
-  <si>
-    <t>rt @carolinagveloso: quando a quarentena acabar eu apago https://t.co/bf4yod41nz</t>
-  </si>
-  <si>
-    <t>rt @rrrafaferreira: nessa quarentena eu consegui entender que eu realmente nasci pra viver em festa</t>
   </si>
   <si>
     <t>rt @claramarcall: quarentena: dia 9
@@ -2106,223 +1866,17 @@
     <t>hoje eu acordei muito piranha, pqp, tô nem me reconhecendo, acho que é efeito da quarentena</t>
   </si>
   <si>
-    <t>@guislhermm a foto pós quarentena q aguardee</t>
-  </si>
-  <si>
-    <t>rt @falidaesurtada: gente vamo organizar pro rolê pós quarentena ser estilo carnaval? tipo tá libera usar bastante glitter tacar bastante r…</t>
-  </si>
-  <si>
-    <t>o adolescente só queria uma coisa nessa quarentena 
-um dengo</t>
-  </si>
-  <si>
-    <t>a quarentena tem deixado todo mundo doido mesmo https://t.co/nrgtkaguhz</t>
-  </si>
-  <si>
-    <t>@kessily_amorim quando essa quarentena acabar, eu vou te levar pra comer uma barca de açaí prima❤️ #sdds</t>
-  </si>
-  <si>
-    <t>eu achei que eu bebia muito até ver os status do japa todos os dias nessa quarentena</t>
-  </si>
-  <si>
-    <t>cansada de não fazer nada nessa quarentena.
-quero a vida de volta ao normal</t>
-  </si>
-  <si>
-    <t>passar um pedaço dessa quarentena no interior vai ser tudoooooo</t>
-  </si>
-  <si>
-    <t>@afcdemoro quero role pós quarentena pfvr</t>
-  </si>
-  <si>
-    <t>passar essa quarentena vou organizar uma resenha aqui em casa, tocar um violão e beber todas hahahaha</t>
-  </si>
-  <si>
-    <t>@fatosex @brunapach1 preciso do fim dessa quarentena😩 tô com saudade💫</t>
-  </si>
-  <si>
-    <t>rt @akapoeta: a quarentena matou os sapatos</t>
-  </si>
-  <si>
-    <t>essa quarentena tá me fazendo até assistir novela. kkkkk
-mas que cena da griselda, minhas amigossss</t>
-  </si>
-  <si>
-    <t>querido diário, hoje eu tive um momento de fraqueza e quase deixei a quarentena de lado por um motivo libertino. https://t.co/w82h0ftxxt</t>
-  </si>
-  <si>
-    <t>@henry09138374 acho que é pq ninguém tem certeza, além da quarentena que parece que vai até o final de julho ainda tem a aglomeração que mesmo depois da quarentena a gente vai ter que evita, e aula infelizmente é onde tem isso né</t>
-  </si>
-  <si>
-    <t>rt @jiminafter: "aproveitem essa quarentena para estudarem"
-eu: tá bom 
-eu também: 
-https://t.co/5zjci6x81o</t>
-  </si>
-  <si>
-    <t>quando a quarentena acabar, o pt vem</t>
-  </si>
-  <si>
-    <t>rt @pbm_joao: só queria dar uns beijo na boca de quem eu gosto, vou colocar a culpa na quarentena sabendo q mesmo sem ela eu tbm n teria ch…</t>
-  </si>
-  <si>
-    <t>eu dançando e mnh mãe gravando kkkkkkk, aaaaaaa quarentena</t>
-  </si>
-  <si>
-    <t>a mina viaja demaaais, bicho. será que ela tá sabendo que tá rolando quarentena? eu conto ou vocês contam?</t>
-  </si>
-  <si>
-    <t>se todas as pessoas estivessem maratonando o canal inutilismo ngm estaria reclamando dessa quarentena</t>
-  </si>
-  <si>
-    <t>a quarentena te deixou sensível?? magina https://t.co/uefvsjnrff</t>
-  </si>
-  <si>
-    <t>rt @majutrindade: tudo o que eu não queria que acontecesse, aconteceu: perdi o controle do meu sono nessa quarentena.</t>
-  </si>
-  <si>
-    <t>rt @analuizaphh: meta pós quarentena: beber todo o álcool que passei nas mãos</t>
-  </si>
-  <si>
-    <t>rt @jogadorfazendom: primeira partida de futebol pós quarentena 😂😂😂 https://t.co/25xuin2bt3</t>
-  </si>
-  <si>
-    <t>essa quarentena está sendo mais produtiva do que imaginei: já concluí três livros que estava lendo e a matéria está em dia. lendo outros três...</t>
-  </si>
-  <si>
-    <t>eu tô o poço da ansiedade nessa quarentena 
-cada dia uma crise existencial diferente</t>
-  </si>
-  <si>
-    <t>3 meses de namoro quase, akkkkkk apenas idiotices pra se fazer na quarentena</t>
-  </si>
-  <si>
-    <t>bbb zoo uel... maluco a quarentena ela fez coisas incríveis hahahahaha</t>
-  </si>
-  <si>
-    <t>tira o ao vivo dessas mina do capão mano, nem na quarentena nos tem paz kkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @thaybtt: a quarentena me deixou mais triste mais safada e com mais fome é o dia inteiro pensando em putaria em fazer um pãozinho e depo…</t>
-  </si>
-  <si>
-    <t>rt @dudalimaz: o jeito que essa quarentena ta acabando com meu psicológico eh diferente</t>
-  </si>
-  <si>
-    <t>to comendo mt mds rs essa quarentena ta deverdade</t>
-  </si>
-  <si>
-    <t>@fui_stalkeado nah, sao só efeitos da quarentena, obrigada mb</t>
-  </si>
-  <si>
-    <t>rt @naty_henriquesz: sonho com o fim dessa quarentena</t>
-  </si>
-  <si>
-    <t>eu comprei um vans novo uma semana antes de começar a quarentena e usei 2 vrzes só, mas já quero comprar outro tênis https://t.co/4pb6amvgg3</t>
-  </si>
-  <si>
-    <t>galera q tem insta: sigam @valenacasa e @henrique_so83 por lá. vou tocar neste festival amanhã às 21h de casa, aproveitem na quarentena vai ser tri!</t>
-  </si>
-  <si>
-    <t>inveja eu tô dos meus vizinhos, tão curtindo a quarentena de forma diferente 😩</t>
-  </si>
-  <si>
-    <t>rt @gabriel1medina: quarentena ferrou com a gnt 😒</t>
-  </si>
-  <si>
-    <t>quarentena exige medidas como: voltar pro twitter pra falar sozinha achando que to falando com alguém ( que não entro desde meus 15 anos)</t>
-  </si>
-  <si>
-    <t>rt @toledo_luiza1: quarentena pra que né https://t.co/tnf8h0eyco</t>
-  </si>
-  <si>
-    <t>@izeyed a quarentena né minha filha</t>
-  </si>
-  <si>
-    <t>rt @_patsoares: os amigos de vcs também se juntam pra gravar videozinho na quarentena? hahahaha https://t.co/v8deyfn3yj</t>
-  </si>
-  <si>
-    <t>rt @mobalikitoko10: se em quarentena 
-te disserem : "desculpa não tenho tido tempo" 
-môrmão sai...🤡🤡🤡</t>
-  </si>
-  <si>
-    <t>eu tô só pela live de jorge e mateus.
-quarentena, 16 dias sem ver o lucas, morrendo de saudade...
-lágrimas descerão</t>
-  </si>
-  <si>
-    <t>engraçado q eu olho pro meu diálogo cmg mesma e digo: kkkkkksim mana ele realmente tava com outra na quarentena ai ai esses macho q diz q ama e menos de duas semanas depois ta com otra</t>
-  </si>
-  <si>
-    <t>a quarentena me obrigou a fazer o risquinho 
-surtoh https://t.co/afo9hvobl1</t>
-  </si>
-  <si>
-    <t>não é possivel que as pessoas não entendam o que é quarentena cara, ir caminhar na rua não está incluso nas ativides permitidas, ta agoniado corre ao redor de casa e se mora em apartamento se fudeu</t>
-  </si>
-  <si>
-    <t>rt @phreisx: geral metendo q qnd a quarentena acabar n vao recusar um role uma saidinha vao acordar todos os dias felizes 
-kkkkkkkkkkkkkkk…</t>
-  </si>
-  <si>
-    <t>@sanseverini se chama quarentena</t>
-  </si>
-  <si>
-    <t>da série: passando vontade na quarentena https://t.co/zjn4n0ju2i</t>
-  </si>
-  <si>
-    <t>rt @arthenewclassic: podíamos ser nós mas tu vives a 2h30 de mim e estamos em quarentena 👉👈🥺</t>
-  </si>
-  <si>
-    <t>eu preciso raspar minha cabeça até o final dessa quarentena</t>
-  </si>
-  <si>
-    <t>essa quarentena tá me fazendo mal</t>
-  </si>
-  <si>
-    <t>rt @yagor_maciel: vaquinha coletiva pra trazer o gbr pra campo grande pós quarentena</t>
-  </si>
-  <si>
-    <t>eu só queria não estar de quarentena e sair com a lorena 💔💔💔</t>
-  </si>
-  <si>
-    <t>@giullycastiel reflexos da quarentena</t>
-  </si>
-  <si>
-    <t>rt @laguinhosx: dia ?? da quarentena e eu não sei mais oq eh usar sutiã</t>
-  </si>
-  <si>
-    <t>@_karenha aí pois meus planos de quarentena é discutir até de quem descordar da minha fruta favorita kkkkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @djlaryhill: medo de ficar sequelada das ideias pós quarentena e perder a pouca capacidade de socializar que ainda me resta</t>
-  </si>
-  <si>
-    <t>triste essa quarentena longe do meu neni 🥵</t>
-  </si>
-  <si>
-    <t>rt @callmepower_: a quarentena nos obriga a pensar nos projetos que a gente deixou pra depois né https://t.co/j9epkoa8dg</t>
-  </si>
-  <si>
-    <t>to em quarentena desde que terminei o ensino médio.</t>
-  </si>
-  <si>
-    <t>rt @emersonr1983: foz do iguaçu durante quarentena dos humanos https://t.co/oevu4p7kic</t>
-  </si>
-  <si>
-    <t>rt @4nnaclara1: ate essa quarentena acabar eu com certeza cometir um suicídio</t>
-  </si>
-  <si>
-    <t>rt @acessojaobr: salvando a nossa quarentena, saiu o teaser do dvd da turnê anti-herói!
-gravado no tom brasil, em são paulo, o dvd será di…</t>
+    <t>Classificacao</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2385,11 +1939,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2431,7 +1993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2463,9 +2025,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2497,6 +2077,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2672,2016 +2270,2689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A335" sqref="A335"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>2</v>
+      </c>
+      <c r="B241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>2</v>
+      </c>
+      <c r="B245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>2</v>
+      </c>
+      <c r="B281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>2</v>
+      </c>
+      <c r="B285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>2</v>
+      </c>
+      <c r="B293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>3</v>
+      </c>
+      <c r="B302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>3</v>
+      </c>
+      <c r="B306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>2</v>
+      </c>
+      <c r="B308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>3</v>
+      </c>
+      <c r="B311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="B312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="B313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>3</v>
+      </c>
+      <c r="B315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>2</v>
+      </c>
+      <c r="B317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="B319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="B325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>3</v>
+      </c>
+      <c r="B327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>3</v>
+      </c>
+      <c r="B328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>2</v>
+      </c>
+      <c r="B330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>3</v>
+      </c>
+      <c r="B331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="B332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>2</v>
+      </c>
+      <c r="B333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="B334" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4690,1594 +4961,1940 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>3</v>
+      </c>
+      <c r="B206" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
-        <v>716</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>